--- a/Trace_Matrix/Trace_Matrix.xlsx
+++ b/Trace_Matrix/Trace_Matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects_2016\Chanakya\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XSpec_Chanakya1\Trace_Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Module_Name</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>Driver_Name</t>
+  </si>
+  <si>
+    <t>Xspec</t>
+  </si>
+  <si>
+    <t>Test1_Xspec.xspec</t>
+  </si>
+  <si>
+    <t>Test2_Xspec.xspec</t>
+  </si>
+  <si>
+    <t>Test1_Xspec.xspec|Test2_Xspec.xspec</t>
   </si>
 </sst>
 </file>
@@ -399,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84613476-96AB-4BD2-9DC3-E47C6ADBB272}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,36 +423,48 @@
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Trace_Matrix/Trace_Matrix.xlsx
+++ b/Trace_Matrix/Trace_Matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XSpec_Chanakya1\Trace_Matrix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharmac2\Desktop\For_POC_CICD\Trace_Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,42 +24,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Module_Name</t>
   </si>
   <si>
-    <t>T1.xsl</t>
-  </si>
-  <si>
-    <t>T2.xsl</t>
-  </si>
-  <si>
-    <t>T3.xsl</t>
-  </si>
-  <si>
-    <t>Test1_driver.xsl</t>
-  </si>
-  <si>
-    <t>Test2_driver.xsl</t>
-  </si>
-  <si>
-    <t>Test1_driver.xsl|Test2_driver.xsl</t>
-  </si>
-  <si>
     <t>Driver_Name</t>
   </si>
   <si>
     <t>Xspec</t>
   </si>
   <si>
-    <t>Test1_Xspec.xspec</t>
-  </si>
-  <si>
-    <t>Test2_Xspec.xspec</t>
-  </si>
-  <si>
-    <t>Test1_Xspec.xspec|Test2_Xspec.xspec</t>
+    <t>CA04-CAN_Rosetta_casedoc-to-LexAdv_admindoc_driver.xsl</t>
+  </si>
+  <si>
+    <t>CA02-CAN_Rosetta_digestdoc-to-LexAdv_seclaw_driver.xsl</t>
+  </si>
+  <si>
+    <t>CA02DS_DIGESTDOC_to_seclaw_case.decisionsummary.xsl</t>
+  </si>
+  <si>
+    <t>CA04-Administrative_Decisions_case.priorhist.xsl</t>
+  </si>
+  <si>
+    <t>CA04-Administrative_Decisions_case.dates.xsl</t>
+  </si>
+  <si>
+    <t>CA04.xspec</t>
+  </si>
+  <si>
+    <t>CA02DS.xspec</t>
+  </si>
+  <si>
+    <t>Rosetta_emph-LxAdv-emph.xsl</t>
+  </si>
+  <si>
+    <t>CA04-CAN_Rosetta_casedoc-to-LexAdv_admindoc_driver.xsl|CA02-CAN_Rosetta_digestdoc-to-LexAdv_seclaw_driver.xsl</t>
+  </si>
+  <si>
+    <t>CA02DS.xspec|CA04.xspec</t>
+  </si>
+  <si>
+    <t>defaultRules.xsl</t>
   </si>
 </sst>
 </file>
@@ -411,16 +417,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84613476-96AB-4BD2-9DC3-E47C6ADBB272}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -428,15 +435,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -447,24 +454,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Trace_Matrix/Trace_Matrix.xlsx
+++ b/Trace_Matrix/Trace_Matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharmac2\Desktop\For_POC_CICD\Trace_Matrix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XSpec_Chanakya1\Trace_Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,22 +50,22 @@
     <t>CA04-Administrative_Decisions_case.dates.xsl</t>
   </si>
   <si>
-    <t>CA04.xspec</t>
-  </si>
-  <si>
-    <t>CA02DS.xspec</t>
-  </si>
-  <si>
     <t>Rosetta_emph-LxAdv-emph.xsl</t>
   </si>
   <si>
     <t>CA04-CAN_Rosetta_casedoc-to-LexAdv_admindoc_driver.xsl|CA02-CAN_Rosetta_digestdoc-to-LexAdv_seclaw_driver.xsl</t>
   </si>
   <si>
-    <t>CA02DS.xspec|CA04.xspec</t>
-  </si>
-  <si>
     <t>defaultRules.xsl</t>
+  </si>
+  <si>
+    <t>CA02DS.bat</t>
+  </si>
+  <si>
+    <t>CA04.bat</t>
+  </si>
+  <si>
+    <t>CA02DS.bat|CA04.bat</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -471,29 +471,29 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Trace_Matrix/Trace_Matrix.xlsx
+++ b/Trace_Matrix/Trace_Matrix.xlsx
@@ -420,7 +420,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Trace_Matrix/Trace_Matrix.xlsx
+++ b/Trace_Matrix/Trace_Matrix.xlsx
@@ -420,7 +420,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
